--- a/TP1/Mediciones/Mediciones.xlsx
+++ b/TP1/Mediciones/Mediciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellon\source\repos\LABO\TP1\Mediciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7E9246-26AF-456D-A89F-F710525A7E26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDE39B5-9C90-4AC0-B49D-B04929CACE76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{555DA7CC-7A38-4795-B3ED-2A85C07D66EC}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
-  <si>
-    <t>Vf</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>Vc</t>
   </si>
@@ -107,6 +106,30 @@
   </si>
   <si>
     <t>Delta o XY según convenga</t>
+  </si>
+  <si>
+    <t>Usamos senodial de 10 Vpp</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>3k9</t>
+  </si>
+  <si>
+    <t>3k89</t>
+  </si>
+  <si>
+    <t>6,76</t>
+  </si>
+  <si>
+    <t>6,83</t>
+  </si>
+  <si>
+    <t>Alan tiene las mediciones del h</t>
+  </si>
+  <si>
+    <t>No pasaba de este numero en frecuencia, cheuquear</t>
   </si>
 </sst>
 </file>
@@ -130,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +184,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -218,11 +247,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,31 +270,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -273,6 +292,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -292,7 +345,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -588,123 +641,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E176629-7EB4-41C6-8CEB-BD43773D0D56}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L4" sqref="L4:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="I1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="M2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="N2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="e">
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="22">
+        <v>2.2126000000000001E-5</v>
+      </c>
+      <c r="F3" s="22">
+        <v>2.2379999999999999E-5</v>
+      </c>
+      <c r="G3" s="2">
         <f>ABS(F3-E3)/F3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="8" t="s">
+        <v>1.1349419124217958E-2</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
+      <c r="A4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="e">
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="22">
+        <v>2.2297E-5</v>
+      </c>
+      <c r="F4" s="22">
+        <v>2.2379999999999999E-5</v>
+      </c>
+      <c r="G4" s="2">
         <f>ABS(F4-E4)/F4</f>
-        <v>#DIV/0!</v>
+        <v>3.7086684539767221E-3</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="K4" s="1">
+        <v>9.94</v>
+      </c>
       <c r="L4" s="1">
         <v>10</v>
       </c>
-      <c r="M4" s="1" t="e">
+      <c r="M4" s="1">
         <f>-20*LOG(K4/J4,10)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -713,148 +788,197 @@
       <c r="I5" s="2">
         <v>2</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1" t="e">
+      <c r="J5" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K5" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="L5" s="1">
+        <v>500</v>
+      </c>
+      <c r="M5" s="1">
         <f t="shared" ref="M5:M23" si="0">-20*LOG(K5/J5,10)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="I6" s="2">
         <v>3</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J6" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K6" s="1">
+        <v>9.77</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="1">
+        <f>-20*LOG(K6/J6,10)</f>
+        <v>3.5488873223509312E-2</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>4</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J7" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K7" s="1">
+        <v>9.68</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1200</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11587300143109788</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I8" s="2">
         <v>5</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J8" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K8" s="1">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16987870684271233</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
       <c r="I9" s="2">
         <v>6</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J9" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9.58</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20606996602808184</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
       <c r="I10" s="2">
         <v>7</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J10" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K10" s="1">
+        <v>9.44</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5000</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33394026163759116</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>10</v>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="I11" s="2">
         <v>8</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J11" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K11" s="1">
+        <v>9.06</v>
+      </c>
+      <c r="L11" s="1">
+        <v>8000</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.690816194062709</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -868,19 +992,25 @@
       <c r="I12" s="2">
         <v>9</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J12" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8.61</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1333171185258757</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -894,12 +1024,18 @@
       <c r="I13" s="2">
         <v>10</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J13" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K13" s="1">
+        <v>7.94</v>
+      </c>
+      <c r="L13" s="1">
+        <v>14000</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8369700990570448</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -908,35 +1044,47 @@
       <c r="I14" s="2">
         <v>11</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J14" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K14" s="1">
+        <v>7.38</v>
+      </c>
+      <c r="L14" s="1">
+        <v>16000</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4722529111381393</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="I15" s="2">
         <v>12</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J15" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K15" s="1">
+        <v>6.81</v>
+      </c>
+      <c r="L15" s="1">
+        <v>18000</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="0"/>
+        <v>3.170437909343268</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -945,12 +1093,18 @@
       <c r="I16" s="2">
         <v>13</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J16" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K16" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="L16" s="1">
+        <v>20000</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3118840935824414</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -959,12 +1113,18 @@
       <c r="I17" s="2">
         <v>14</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J17" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K17" s="1">
+        <v>6.44</v>
+      </c>
+      <c r="L17" s="1">
+        <v>22000</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6556628004027281</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -973,12 +1133,18 @@
       <c r="I18" s="2">
         <v>15</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J18" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="L18" s="1">
+        <v>30000</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3314897259695897</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -987,12 +1153,18 @@
       <c r="I19" s="2">
         <v>16</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J19" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="L19" s="1">
+        <v>50000</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8043801881414652</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1001,12 +1173,18 @@
       <c r="I20" s="2">
         <v>17</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J20" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="L20" s="1">
+        <v>80000</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="0"/>
+        <v>12.301841006468731</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1015,12 +1193,18 @@
       <c r="I21" s="2">
         <v>18</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J21" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="L21" s="1">
+        <v>120000</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="0"/>
+        <v>15.275646055325501</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -1029,12 +1213,18 @@
       <c r="I22" s="2">
         <v>19</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J22" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="L22" s="1">
+        <v>150000</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="0"/>
+        <v>16.666130305693976</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -1043,17 +1233,121 @@
       <c r="I23" s="2">
         <v>20</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="J23" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1.19</v>
+      </c>
       <c r="L23" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="M23" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>180000</v>
+      </c>
+      <c r="M23" s="1">
+        <f>-20*LOG(K23/J23,10)</f>
+        <v>18.322440919748356</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I24" s="2">
+        <v>21</v>
+      </c>
+      <c r="J24" s="20">
+        <v>9.81</v>
+      </c>
+      <c r="K24" s="20">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L24" s="20">
+        <v>200000</v>
+      </c>
+      <c r="M24" s="20">
+        <f>-20*LOG(K24/J24,10)</f>
+        <v>18.771811277930574</v>
+      </c>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I25" s="2">
+        <v>22</v>
+      </c>
+      <c r="J25" s="20">
+        <v>9.81</v>
+      </c>
+      <c r="K25" s="20">
+        <v>0.44</v>
+      </c>
+      <c r="L25" s="20">
+        <v>250000</v>
+      </c>
+      <c r="M25" s="20">
+        <f t="shared" ref="M25:M28" si="1">-20*LOG(K25/J25,10)</f>
+        <v>26.964326617875219</v>
+      </c>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+    </row>
+    <row r="26" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I26" s="2">
+        <v>23</v>
+      </c>
+      <c r="J26" s="20">
+        <v>9.81</v>
+      </c>
+      <c r="K26" s="20">
+        <v>0.81</v>
+      </c>
+      <c r="L26" s="20">
+        <v>300000</v>
+      </c>
+      <c r="M26" s="20">
+        <f t="shared" si="1"/>
+        <v>21.663679770025972</v>
+      </c>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I27" s="2">
+        <v>24</v>
+      </c>
+      <c r="J27" s="20">
+        <v>9.81</v>
+      </c>
+      <c r="K27" s="20">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L27" s="20">
+        <v>500000</v>
+      </c>
+      <c r="M27" s="20">
+        <f t="shared" si="1"/>
+        <v>24.869619607474959</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+    </row>
+    <row r="28" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I28" s="2">
+        <v>25</v>
+      </c>
+      <c r="J28" s="20">
+        <v>9.81</v>
+      </c>
+      <c r="K28" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="L28" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="M28" s="20">
+        <f t="shared" si="1"/>
+        <v>30.290955053205721</v>
+      </c>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1078,347 +1372,465 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02DA3D6-5C1D-45A4-8102-49FE77036945}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="e">
+      <c r="E4" s="1">
         <f>-20*LOG(C4/B4,10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="18"/>
+        <v>42.44650242011226</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="e">
+      <c r="B5" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>500</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" ref="E5:E23" si="0">-20*LOG(C5/B5,10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="18"/>
+        <v>24.384702680273392</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
+      <c r="B6" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>20.862877499159765</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="B7" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>19.119873984781762</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+      <c r="B8" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>17.668860641809523</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="B9" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>13.927127774666641</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
+      <c r="B10" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>10.092519907409516</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
+      <c r="B11" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.41</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0589558985894936</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
+      <c r="B12" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3048261604696307</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
+      <c r="B13" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>14000</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.099893897981187</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
+      <c r="B14" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6.84</v>
+      </c>
+      <c r="D14" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2466056535439405</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
+      <c r="B15" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6.91</v>
+      </c>
+      <c r="D15" s="1">
+        <v>18000</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1581667404622973</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
+      <c r="B16" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7.01</v>
+      </c>
+      <c r="D16" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0333673286130929</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
+      <c r="B17" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7.28</v>
+      </c>
+      <c r="D17" s="1">
+        <v>22000</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7051001016855221</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
+      <c r="B18" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8.23</v>
+      </c>
+      <c r="D18" s="1">
+        <v>30000</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6397309837008689</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
+      <c r="B19" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8.93</v>
+      </c>
+      <c r="D19" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93069851017533711</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
+      <c r="B20" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9.31</v>
+      </c>
+      <c r="D20" s="1">
+        <v>80000</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56873406831941298</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
+      <c r="B21" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9.69</v>
+      </c>
+      <c r="D21" s="1">
+        <v>120000</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22125214693095968</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>9.94</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>150000</v>
+      </c>
       <c r="E22" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>9.94</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
-        <v>1000000</v>
+        <v>180000</v>
       </c>
       <c r="E23" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TP1/Mediciones/Mediciones.xlsx
+++ b/TP1/Mediciones/Mediciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germa\Documents\GitHub\LABO\TP1\Mediciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDE39B5-9C90-4AC0-B49D-B04929CACE76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426DEF3F-2831-4D1A-88D6-DD135F812030}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{555DA7CC-7A38-4795-B3ED-2A85C07D66EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{555DA7CC-7A38-4795-B3ED-2A85C07D66EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>Vc</t>
   </si>
@@ -105,9 +127,6 @@
     <t>2 - b</t>
   </si>
   <si>
-    <t>Delta o XY según convenga</t>
-  </si>
-  <si>
     <t>Usamos senodial de 10 Vpp</t>
   </si>
   <si>
@@ -129,7 +148,121 @@
     <t>Alan tiene las mediciones del h</t>
   </si>
   <si>
-    <t>No pasaba de este numero en frecuencia, cheuquear</t>
+    <t>1°</t>
+  </si>
+  <si>
+    <t>3°</t>
+  </si>
+  <si>
+    <t>4°</t>
+  </si>
+  <si>
+    <t>6°</t>
+  </si>
+  <si>
+    <t>10°</t>
+  </si>
+  <si>
+    <t>15°</t>
+  </si>
+  <si>
+    <t>25°</t>
+  </si>
+  <si>
+    <t>30°</t>
+  </si>
+  <si>
+    <t>39°</t>
+  </si>
+  <si>
+    <t>42°</t>
+  </si>
+  <si>
+    <t>45°</t>
+  </si>
+  <si>
+    <t>50°</t>
+  </si>
+  <si>
+    <t>52°</t>
+  </si>
+  <si>
+    <t>59°</t>
+  </si>
+  <si>
+    <t>71°</t>
+  </si>
+  <si>
+    <t>76°</t>
+  </si>
+  <si>
+    <t>79°</t>
+  </si>
+  <si>
+    <t>81°</t>
+  </si>
+  <si>
+    <t>82°</t>
+  </si>
+  <si>
+    <t>83°</t>
+  </si>
+  <si>
+    <t>X0</t>
+  </si>
+  <si>
+    <t>XT</t>
+  </si>
+  <si>
+    <t>90°</t>
+  </si>
+  <si>
+    <t>89°</t>
+  </si>
+  <si>
+    <t>87°</t>
+  </si>
+  <si>
+    <t>86°</t>
+  </si>
+  <si>
+    <t>85°</t>
+  </si>
+  <si>
+    <t>75°</t>
+  </si>
+  <si>
+    <t>61°</t>
+  </si>
+  <si>
+    <t>66°</t>
+  </si>
+  <si>
+    <t>46°</t>
+  </si>
+  <si>
+    <t>41°</t>
+  </si>
+  <si>
+    <t>31°</t>
+  </si>
+  <si>
+    <t>20°</t>
+  </si>
+  <si>
+    <t>13°</t>
+  </si>
+  <si>
+    <t>9°</t>
+  </si>
+  <si>
+    <t>5°</t>
+  </si>
+  <si>
+    <t>son negativos</t>
+  </si>
+  <si>
+    <t>84°</t>
   </si>
 </sst>
 </file>
@@ -191,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -258,11 +391,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,6 +452,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,25 +499,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E176629-7EB4-41C6-8CEB-BD43773D0D56}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,27 +825,28 @@
     <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="I1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -692,78 +866,92 @@
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="22">
+        <v>25</v>
+      </c>
+      <c r="E3" s="14">
         <v>2.2126000000000001E-5</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="14">
         <v>2.2379999999999999E-5</v>
       </c>
-      <c r="G3" s="2">
-        <f>ABS(F3-E3)/F3</f>
-        <v>1.1349419124217958E-2</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="4" t="s">
+      <c r="G3" s="16">
+        <f>(ABS(F3-E3)/F3)*100</f>
+        <v>1.1349419124217959</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3" s="22"/>
+      <c r="R3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="22">
+        <v>26</v>
+      </c>
+      <c r="E4" s="14">
         <v>2.2297E-5</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="14">
         <v>2.2379999999999999E-5</v>
       </c>
-      <c r="G4" s="2">
-        <f>ABS(F4-E4)/F4</f>
-        <v>3.7086684539767221E-3</v>
+      <c r="G4" s="16">
+        <f>(ABS(F4-E4)/F4)*100</f>
+        <v>0.37086684539767223</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -775,16 +963,35 @@
         <v>9.94</v>
       </c>
       <c r="L4" s="1">
+        <f t="shared" ref="L4:L28" si="0">Q4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
         <v>10</v>
       </c>
-      <c r="M4" s="1">
-        <f>-20*LOG(K4/J4,10)</f>
+      <c r="N4" s="17">
+        <f t="shared" ref="N4:N28" si="1">-20*LOG(K4/J4,10)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="16">
+        <f>ASIN(R4/S4)*(180/PI())</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q28" si="2">J4-K4</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I5" s="2">
         <v>2</v>
       </c>
@@ -795,21 +1002,40 @@
         <v>9.81</v>
       </c>
       <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
         <v>500</v>
       </c>
-      <c r="M5" s="1">
-        <f t="shared" ref="M5:M23" si="0">-20*LOG(K5/J5,10)</f>
+      <c r="N5" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="O5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="16">
+        <f t="shared" ref="P5:P27" si="3">ASIN(R5/S5)*(180/PI())</f>
+        <v>1.2382926514488748</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="S5" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="I6" s="2">
         <v>3</v>
       </c>
@@ -820,16 +1046,35 @@
         <v>9.77</v>
       </c>
       <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000924E-2</v>
+      </c>
+      <c r="M6" s="1">
         <v>1000</v>
       </c>
-      <c r="M6" s="1">
-        <f>-20*LOG(K6/J6,10)</f>
+      <c r="N6" s="17">
+        <f t="shared" si="1"/>
         <v>3.5488873223509312E-2</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="16">
+        <f t="shared" si="3"/>
+        <v>2.5999361932121099</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000924E-2</v>
+      </c>
+      <c r="R6">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="S6" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -849,22 +1094,41 @@
         <v>9.68</v>
       </c>
       <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13000000000000078</v>
+      </c>
+      <c r="M7" s="1">
         <v>1200</v>
       </c>
-      <c r="M7" s="1">
-        <f t="shared" si="0"/>
+      <c r="N7" s="17">
+        <f t="shared" si="1"/>
         <v>0.11587300143109788</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="16">
+        <f t="shared" si="3"/>
+        <v>3.2432360332603949</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>0.13000000000000078</v>
+      </c>
+      <c r="R7">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="S7" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="I8" s="2">
         <v>5</v>
@@ -876,18 +1140,37 @@
         <v>9.6199999999999992</v>
       </c>
       <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19000000000000128</v>
+      </c>
+      <c r="M8" s="1">
         <v>1800</v>
       </c>
-      <c r="M8" s="1">
-        <f t="shared" si="0"/>
+      <c r="N8" s="17">
+        <f t="shared" si="1"/>
         <v>0.16987870684271233</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="16">
+        <f t="shared" si="3"/>
+        <v>5.1290083838731757</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>0.19000000000000128</v>
+      </c>
+      <c r="R8">
+        <v>0.877</v>
+      </c>
+      <c r="S8" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="2">
         <v>6</v>
@@ -899,25 +1182,44 @@
         <v>9.58</v>
       </c>
       <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23000000000000043</v>
+      </c>
+      <c r="M9" s="1">
         <v>3000</v>
       </c>
-      <c r="M9" s="1">
-        <f t="shared" si="0"/>
+      <c r="N9" s="17">
+        <f t="shared" si="1"/>
         <v>0.20606996602808184</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="O9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="16">
+        <f t="shared" si="3"/>
+        <v>9.0909463869772154</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>0.23000000000000043</v>
+      </c>
+      <c r="R9">
+        <v>1.55</v>
+      </c>
+      <c r="S9" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
       <c r="I10" s="2">
         <v>7</v>
       </c>
@@ -928,16 +1230,35 @@
         <v>9.44</v>
       </c>
       <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37000000000000099</v>
+      </c>
+      <c r="M10" s="1">
         <v>5000</v>
       </c>
-      <c r="M10" s="1">
-        <f t="shared" si="0"/>
+      <c r="N10" s="17">
+        <f t="shared" si="1"/>
         <v>0.33394026163759116</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="16">
+        <f t="shared" si="3"/>
+        <v>15.73282226337067</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>0.37000000000000099</v>
+      </c>
+      <c r="R10">
+        <v>2.66</v>
+      </c>
+      <c r="S10" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
@@ -967,16 +1288,35 @@
         <v>9.06</v>
       </c>
       <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="M11" s="1">
         <v>8000</v>
       </c>
-      <c r="M11" s="1">
-        <f t="shared" si="0"/>
+      <c r="N11" s="17">
+        <f t="shared" si="1"/>
         <v>0.690816194062709</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="16">
+        <f t="shared" si="3"/>
+        <v>23.743969974977841</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="R11">
+        <v>3.95</v>
+      </c>
+      <c r="S11" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -999,16 +1339,35 @@
         <v>8.61</v>
       </c>
       <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000011</v>
+      </c>
+      <c r="M12" s="1">
         <v>10000</v>
       </c>
-      <c r="M12" s="1">
-        <f t="shared" si="0"/>
+      <c r="N12" s="17">
+        <f t="shared" si="1"/>
         <v>1.1333171185258757</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="16">
+        <f t="shared" si="3"/>
+        <v>27.897412868095174</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>1.2000000000000011</v>
+      </c>
+      <c r="R12">
+        <v>4.59</v>
+      </c>
+      <c r="S12" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1031,16 +1390,35 @@
         <v>7.94</v>
       </c>
       <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.87</v>
+      </c>
+      <c r="M13" s="1">
         <v>14000</v>
       </c>
-      <c r="M13" s="1">
-        <f t="shared" si="0"/>
+      <c r="N13" s="17">
+        <f t="shared" si="1"/>
         <v>1.8369700990570448</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="16">
+        <f t="shared" si="3"/>
+        <v>32.010276175344394</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>1.87</v>
+      </c>
+      <c r="R13">
+        <v>5.2</v>
+      </c>
+      <c r="S13" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
         <v>11</v>
       </c>
@@ -1051,25 +1429,44 @@
         <v>7.38</v>
       </c>
       <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4300000000000006</v>
+      </c>
+      <c r="M14" s="1">
         <v>16000</v>
       </c>
-      <c r="M14" s="1">
-        <f t="shared" si="0"/>
+      <c r="N14" s="17">
+        <f t="shared" si="1"/>
         <v>2.4722529111381393</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="O14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="16">
+        <f t="shared" si="3"/>
+        <v>38.448758460603983</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>2.4300000000000006</v>
+      </c>
+      <c r="R14">
+        <v>6.1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
       <c r="I15" s="2">
         <v>12</v>
       </c>
@@ -1080,16 +1477,35 @@
         <v>6.81</v>
       </c>
       <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="M15" s="1">
         <v>18000</v>
       </c>
-      <c r="M15" s="1">
-        <f t="shared" si="0"/>
+      <c r="N15" s="17">
+        <f t="shared" si="1"/>
         <v>3.170437909343268</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="16">
+        <f t="shared" si="3"/>
+        <v>40.954054685153892</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="R15">
+        <v>6.43</v>
+      </c>
+      <c r="S15" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
         <v>13</v>
       </c>
@@ -1100,16 +1516,35 @@
         <v>6.7</v>
       </c>
       <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1100000000000003</v>
+      </c>
+      <c r="M16" s="1">
         <v>20000</v>
       </c>
-      <c r="M16" s="1">
-        <f t="shared" si="0"/>
+      <c r="N16" s="17">
+        <f t="shared" si="1"/>
         <v>3.3118840935824414</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="16">
+        <f t="shared" si="3"/>
+        <v>42.598783952778774</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>3.1100000000000003</v>
+      </c>
+      <c r="R16">
+        <v>6.64</v>
+      </c>
+      <c r="S16" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="17" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I17" s="2">
         <v>14</v>
       </c>
@@ -1120,16 +1555,35 @@
         <v>6.44</v>
       </c>
       <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.37</v>
+      </c>
+      <c r="M17" s="1">
         <v>22000</v>
       </c>
-      <c r="M17" s="1">
-        <f t="shared" si="0"/>
+      <c r="N17" s="17">
+        <f t="shared" si="1"/>
         <v>3.6556628004027281</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="16">
+        <f t="shared" si="3"/>
+        <v>43.881587291940789</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>3.37</v>
+      </c>
+      <c r="R17">
+        <v>6.8</v>
+      </c>
+      <c r="S17" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="18" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I18" s="2">
         <v>15</v>
       </c>
@@ -1140,16 +1594,35 @@
         <v>5.31</v>
       </c>
       <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5000000000000009</v>
+      </c>
+      <c r="M18" s="1">
         <v>30000</v>
       </c>
-      <c r="M18" s="1">
-        <f t="shared" si="0"/>
+      <c r="N18" s="17">
+        <f t="shared" si="1"/>
         <v>5.3314897259695897</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="16">
+        <f t="shared" si="3"/>
+        <v>46.196052362654903</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>4.5000000000000009</v>
+      </c>
+      <c r="R18">
+        <v>7.08</v>
+      </c>
+      <c r="S18" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="19" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I19" s="2">
         <v>16</v>
       </c>
@@ -1160,16 +1633,35 @@
         <v>3.56</v>
       </c>
       <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="M19" s="1">
         <v>50000</v>
       </c>
-      <c r="M19" s="1">
-        <f t="shared" si="0"/>
+      <c r="N19" s="17">
+        <f t="shared" si="1"/>
         <v>8.8043801881414652</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" s="16">
+        <f t="shared" si="3"/>
+        <v>65.829961709826875</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>6.25</v>
+      </c>
+      <c r="R19">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="S19" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="20" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I20" s="2">
         <v>17</v>
       </c>
@@ -1180,16 +1672,35 @@
         <v>2.38</v>
       </c>
       <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4300000000000006</v>
+      </c>
+      <c r="M20" s="1">
         <v>80000</v>
       </c>
-      <c r="M20" s="1">
-        <f t="shared" si="0"/>
+      <c r="N20" s="17">
+        <f t="shared" si="1"/>
         <v>12.301841006468731</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="3"/>
+        <v>70.547067990319121</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>7.4300000000000006</v>
+      </c>
+      <c r="R20">
+        <v>9.25</v>
+      </c>
+      <c r="S20" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="21" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I21" s="2">
         <v>18</v>
       </c>
@@ -1200,16 +1711,35 @@
         <v>1.69</v>
       </c>
       <c r="L21" s="1">
+        <f t="shared" si="0"/>
+        <v>8.120000000000001</v>
+      </c>
+      <c r="M21" s="1">
         <v>120000</v>
       </c>
-      <c r="M21" s="1">
-        <f t="shared" si="0"/>
+      <c r="N21" s="17">
+        <f t="shared" si="1"/>
         <v>15.275646055325501</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" s="16">
+        <f t="shared" si="3"/>
+        <v>76.277900285347869</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>8.120000000000001</v>
+      </c>
+      <c r="R21">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="S21" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="22" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I22" s="2">
         <v>19</v>
       </c>
@@ -1220,16 +1750,35 @@
         <v>1.44</v>
       </c>
       <c r="L22" s="1">
+        <f t="shared" si="0"/>
+        <v>8.370000000000001</v>
+      </c>
+      <c r="M22" s="1">
         <v>150000</v>
       </c>
-      <c r="M22" s="1">
-        <f t="shared" si="0"/>
+      <c r="N22" s="17">
+        <f t="shared" si="1"/>
         <v>16.666130305693976</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P22" s="16">
+        <f t="shared" si="3"/>
+        <v>78.123442716406927</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>8.370000000000001</v>
+      </c>
+      <c r="R22">
+        <v>9.6</v>
+      </c>
+      <c r="S22" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="23" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I23" s="2">
         <v>20</v>
       </c>
@@ -1240,128 +1789,234 @@
         <v>1.19</v>
       </c>
       <c r="L23" s="1">
+        <f t="shared" si="0"/>
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M23" s="1">
         <v>180000</v>
       </c>
-      <c r="M23" s="1">
-        <f>-20*LOG(K23/J23,10)</f>
+      <c r="N23" s="17">
+        <f t="shared" si="1"/>
         <v>18.322440919748356</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" s="16">
+        <f t="shared" si="3"/>
+        <v>78.410659015772893</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>8.620000000000001</v>
+      </c>
+      <c r="R23">
+        <v>9.61</v>
+      </c>
+      <c r="S23" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="24" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I24" s="2">
         <v>21</v>
       </c>
-      <c r="J24" s="20">
-        <v>9.81</v>
-      </c>
-      <c r="K24" s="20">
+      <c r="J24" s="13">
+        <v>9.81</v>
+      </c>
+      <c r="K24" s="13">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="13">
+        <f t="shared" si="0"/>
+        <v>8.68</v>
+      </c>
+      <c r="M24" s="13">
         <v>200000</v>
       </c>
-      <c r="M24" s="20">
-        <f>-20*LOG(K24/J24,10)</f>
+      <c r="N24" s="19">
+        <f t="shared" si="1"/>
         <v>18.771811277930574</v>
       </c>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-    </row>
-    <row r="25" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" s="16">
+        <f t="shared" si="3"/>
+        <v>78.410659015772893</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>8.68</v>
+      </c>
+      <c r="R24">
+        <v>9.61</v>
+      </c>
+      <c r="S24" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="25" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I25" s="2">
         <v>22</v>
       </c>
-      <c r="J25" s="20">
-        <v>9.81</v>
-      </c>
-      <c r="K25" s="20">
+      <c r="J25" s="13">
+        <v>9.81</v>
+      </c>
+      <c r="K25" s="13">
         <v>0.44</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="13">
+        <f t="shared" si="0"/>
+        <v>9.370000000000001</v>
+      </c>
+      <c r="M25" s="13">
         <v>250000</v>
       </c>
-      <c r="M25" s="20">
-        <f t="shared" ref="M25:M28" si="1">-20*LOG(K25/J25,10)</f>
+      <c r="N25" s="19">
+        <f t="shared" si="1"/>
         <v>26.964326617875219</v>
       </c>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-    </row>
-    <row r="26" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P25" s="16">
+        <f t="shared" si="3"/>
+        <v>78.410659015772893</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>9.370000000000001</v>
+      </c>
+      <c r="R25">
+        <v>9.61</v>
+      </c>
+      <c r="S25" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="26" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I26" s="2">
         <v>23</v>
       </c>
-      <c r="J26" s="20">
-        <v>9.81</v>
-      </c>
-      <c r="K26" s="20">
+      <c r="J26" s="13">
+        <v>9.81</v>
+      </c>
+      <c r="K26" s="13">
         <v>0.81</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M26" s="13">
         <v>300000</v>
       </c>
-      <c r="M26" s="20">
+      <c r="N26" s="19">
         <f t="shared" si="1"/>
         <v>21.663679770025972</v>
       </c>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-    </row>
-    <row r="27" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="S26" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="27" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I27" s="2">
         <v>24</v>
       </c>
-      <c r="J27" s="20">
-        <v>9.81</v>
-      </c>
-      <c r="K27" s="20">
+      <c r="J27" s="13">
+        <v>9.81</v>
+      </c>
+      <c r="K27" s="13">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="13">
+        <f t="shared" si="0"/>
+        <v>9.25</v>
+      </c>
+      <c r="M27" s="13">
         <v>500000</v>
       </c>
-      <c r="M27" s="20">
+      <c r="N27" s="19">
         <f t="shared" si="1"/>
         <v>24.869619607474959</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-    </row>
-    <row r="28" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>9.25</v>
+      </c>
+      <c r="S27" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="28" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I28" s="2">
         <v>25</v>
       </c>
-      <c r="J28" s="20">
-        <v>9.81</v>
-      </c>
-      <c r="K28" s="20">
+      <c r="J28" s="13">
+        <v>9.81</v>
+      </c>
+      <c r="K28" s="13">
         <v>0.3</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="13">
+        <f t="shared" si="0"/>
+        <v>9.51</v>
+      </c>
+      <c r="M28" s="13">
         <v>1000000</v>
       </c>
-      <c r="M28" s="20">
+      <c r="N28" s="19">
         <f t="shared" si="1"/>
         <v>30.290955053205721</v>
       </c>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
+      <c r="O28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P28" s="16" t="e" cm="1">
+        <f t="array" aca="1" ref="P28" ca="1">aseno(R28/S28)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>9.51</v>
+      </c>
+      <c r="S28" s="1">
+        <v>9.81</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="I1:O1"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1370,62 +2025,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02DA3D6-5C1D-45A4-8102-49FE77036945}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1433,19 +2093,27 @@
         <v>9.94</v>
       </c>
       <c r="C4" s="1">
+        <f>B4-D4</f>
+        <v>9.8650000000000002</v>
+      </c>
+      <c r="D4" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
-        <f>-20*LOG(C4/B4,10)</f>
+      <c r="F4" s="17">
+        <f>-20*LOG(D4/B4,10)</f>
         <v>42.44650242011226</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1453,19 +2121,25 @@
         <v>9.94</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" ref="C5:C23" si="0">B5-D5</f>
+        <v>9.34</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.6</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>500</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" ref="E5:E23" si="0">-20*LOG(C5/B5,10)</f>
+      <c r="F5" s="17">
+        <f t="shared" ref="F5:F23" si="1">-20*LOG(D5/B5,10)</f>
         <v>24.384702680273392</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1473,19 +2147,25 @@
         <v>9.94</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.9</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>1000</v>
       </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
+      <c r="F6" s="17">
+        <f t="shared" si="1"/>
         <v>20.862877499159765</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1493,19 +2173,25 @@
         <v>9.94</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>8.84</v>
+      </c>
+      <c r="D7" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>1200</v>
       </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
+      <c r="F7" s="17">
+        <f t="shared" si="1"/>
         <v>19.119873984781762</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1513,19 +2199,25 @@
         <v>9.94</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6399999999999988</v>
+      </c>
+      <c r="D8" s="1">
         <v>1.3</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>1800</v>
       </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
+      <c r="F8" s="17">
+        <f t="shared" si="1"/>
         <v>17.668860641809523</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1533,19 +2225,25 @@
         <v>9.94</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>7.9399999999999995</v>
+      </c>
+      <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>3000</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
+      <c r="F9" s="17">
+        <f t="shared" si="1"/>
         <v>13.927127774666641</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1553,19 +2251,25 @@
         <v>9.94</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>6.83</v>
+      </c>
+      <c r="D10" s="1">
         <v>3.11</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>5000</v>
       </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
+      <c r="F10" s="17">
+        <f t="shared" si="1"/>
         <v>10.092519907409516</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1573,19 +2277,25 @@
         <v>9.94</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5299999999999994</v>
+      </c>
+      <c r="D11" s="1">
         <v>4.41</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>8000</v>
       </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
+      <c r="F11" s="17">
+        <f t="shared" si="1"/>
         <v>7.0589558985894936</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1593,19 +2303,25 @@
         <v>9.94</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>5.13</v>
+      </c>
+      <c r="D12" s="1">
         <v>4.8099999999999996</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>10000</v>
       </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
+      <c r="F12" s="17">
+        <f t="shared" si="1"/>
         <v>6.3048261604696307</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1613,19 +2329,25 @@
         <v>9.94</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7399999999999993</v>
+      </c>
+      <c r="D13" s="1">
         <v>6.2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>14000</v>
       </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
+      <c r="F13" s="17">
+        <f t="shared" si="1"/>
         <v>4.099893897981187</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1633,19 +2355,25 @@
         <v>9.94</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="D14" s="1">
         <v>6.84</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>16000</v>
       </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
+      <c r="F14" s="17">
+        <f t="shared" si="1"/>
         <v>3.2466056535439405</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -1653,19 +2381,25 @@
         <v>9.94</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0299999999999994</v>
+      </c>
+      <c r="D15" s="1">
         <v>6.91</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>18000</v>
       </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
+      <c r="F15" s="17">
+        <f t="shared" si="1"/>
         <v>3.1581667404622973</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -1673,19 +2407,25 @@
         <v>9.94</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9299999999999997</v>
+      </c>
+      <c r="D16" s="1">
         <v>7.01</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>20000</v>
       </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
+      <c r="F16" s="17">
+        <f t="shared" si="1"/>
         <v>3.0333673286130929</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -1693,19 +2433,25 @@
         <v>9.94</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6599999999999993</v>
+      </c>
+      <c r="D17" s="1">
         <v>7.28</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>22000</v>
       </c>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
+      <c r="F17" s="17">
+        <f t="shared" si="1"/>
         <v>2.7051001016855221</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -1713,19 +2459,25 @@
         <v>9.94</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7099999999999991</v>
+      </c>
+      <c r="D18" s="1">
         <v>8.23</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>30000</v>
       </c>
-      <c r="E18" s="1">
-        <f t="shared" si="0"/>
+      <c r="F18" s="17">
+        <f t="shared" si="1"/>
         <v>1.6397309837008689</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -1733,19 +2485,25 @@
         <v>9.94</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0099999999999998</v>
+      </c>
+      <c r="D19" s="1">
         <v>8.93</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>50000</v>
       </c>
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
+      <c r="F19" s="17">
+        <f t="shared" si="1"/>
         <v>0.93069851017533711</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -1753,19 +2511,25 @@
         <v>9.94</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62999999999999901</v>
+      </c>
+      <c r="D20" s="1">
         <v>9.31</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>80000</v>
       </c>
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
+      <c r="F20" s="17">
+        <f t="shared" si="1"/>
         <v>0.56873406831941298</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1773,65 +2537,86 @@
         <v>9.94</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="D21" s="1">
         <v>9.69</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>120000</v>
       </c>
-      <c r="E21" s="1">
-        <f t="shared" si="0"/>
+      <c r="F21" s="17">
+        <f t="shared" si="1"/>
         <v>0.22125214693095968</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="1">
         <v>9.94</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999865</v>
+      </c>
       <c r="D22" s="1">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="E22" s="1">
         <v>150000</v>
       </c>
-      <c r="E22" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="17">
+        <f t="shared" si="1"/>
+        <v>0.20334308978616783</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="1">
         <v>9.94</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21999999999999886</v>
+      </c>
       <c r="D23" s="1">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="E23" s="1">
         <v>180000</v>
       </c>
-      <c r="E23" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
+      <c r="F23" s="17">
+        <f t="shared" si="1"/>
+        <v>0.19440238942077401</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TP1/Mediciones/Mediciones.xlsx
+++ b/TP1/Mediciones/Mediciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germa\Documents\GitHub\LABO\TP1\Mediciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426DEF3F-2831-4D1A-88D6-DD135F812030}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2D7256-0B91-459C-A3E2-6E9F61AD11E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{555DA7CC-7A38-4795-B3ED-2A85C07D66EC}"/>
   </bookViews>
@@ -31,28 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -816,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E176629-7EB4-41C6-8CEB-BD43773D0D56}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +994,7 @@
         <v>30</v>
       </c>
       <c r="P5" s="16">
-        <f t="shared" ref="P5:P27" si="3">ASIN(R5/S5)*(180/PI())</f>
+        <f t="shared" ref="P5:P28" si="3">ASIN(R5/S5)*(180/PI())</f>
         <v>1.2382926514488748</v>
       </c>
       <c r="Q5">
@@ -1921,12 +1899,15 @@
       </c>
       <c r="P26" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>78.410659015772893</v>
       </c>
       <c r="Q26">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
+      <c r="R26">
+        <v>9.61</v>
+      </c>
       <c r="S26" s="1">
         <v>9.81</v>
       </c>
@@ -1957,12 +1938,15 @@
       </c>
       <c r="P27" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>78.410659015772893</v>
       </c>
       <c r="Q27">
         <f t="shared" si="2"/>
         <v>9.25</v>
       </c>
+      <c r="R27">
+        <v>9.61</v>
+      </c>
       <c r="S27" s="1">
         <v>9.81</v>
       </c>
@@ -1991,13 +1975,16 @@
       <c r="O28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P28" s="16" t="e" cm="1">
-        <f t="array" aca="1" ref="P28" ca="1">aseno(R28/S28)</f>
-        <v>#NAME?</v>
+      <c r="P28" s="16">
+        <f t="shared" si="3"/>
+        <v>78.410659015772893</v>
       </c>
       <c r="Q28">
         <f t="shared" si="2"/>
         <v>9.51</v>
+      </c>
+      <c r="R28">
+        <v>9.61</v>
       </c>
       <c r="S28" s="1">
         <v>9.81</v>
@@ -2028,7 +2015,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TP1/Mediciones/Mediciones.xlsx
+++ b/TP1/Mediciones/Mediciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germa\Documents\GitHub\LABO\TP1\Mediciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guido\Documents\GitHub\LABO\TP1\Mediciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2D7256-0B91-459C-A3E2-6E9F61AD11E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989A0184-F795-426A-A483-18860877D8E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{555DA7CC-7A38-4795-B3ED-2A85C07D66EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{555DA7CC-7A38-4795-B3ED-2A85C07D66EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -111,9 +109,6 @@
     <t>Vin</t>
   </si>
   <si>
-    <t>3k9</t>
-  </si>
-  <si>
     <t>3k89</t>
   </si>
   <si>
@@ -241,6 +236,9 @@
   </si>
   <si>
     <t>84°</t>
+  </si>
+  <si>
+    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -399,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,6 +476,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E176629-7EB4-41C6-8CEB-BD43773D0D56}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +802,7 @@
     <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
@@ -824,7 +823,7 @@
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -873,14 +872,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
+      <c r="D3" s="2">
+        <v>3900</v>
       </c>
       <c r="E3" s="14">
         <v>2.2126000000000001E-5</v>
@@ -906,20 +905,23 @@
       </c>
       <c r="Q3" s="22"/>
       <c r="R3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
         <v>50</v>
       </c>
-      <c r="S3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="14">
         <v>2.2297E-5</v>
@@ -941,35 +943,31 @@
         <v>9.94</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L28" si="0">Q4</f>
-        <v>0</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="M4" s="1">
         <v>10</v>
       </c>
       <c r="N4" s="17">
-        <f t="shared" ref="N4:N28" si="1">-20*LOG(K4/J4,10)</f>
+        <f t="shared" ref="N4:N28" si="0">-20*LOG(K4/J4,10)</f>
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P4" s="16">
         <f>ASIN(R4/S4)*(180/PI())</f>
         <v>0</v>
       </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q28" si="2">J4-K4</f>
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="30"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I5" s="2">
         <v>2</v>
       </c>
@@ -980,26 +978,21 @@
         <v>9.81</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="M5" s="1">
         <v>500</v>
       </c>
       <c r="N5" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" s="16">
-        <f t="shared" ref="P5:P28" si="3">ASIN(R5/S5)*(180/PI())</f>
+        <f t="shared" ref="P5:P28" si="1">ASIN(R5/S5)*(180/PI())</f>
         <v>1.2382926514488748</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
       <c r="R5">
         <v>0.21199999999999999</v>
@@ -1007,8 +1000,9 @@
       <c r="S5" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="30"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>15</v>
       </c>
@@ -1024,26 +1018,21 @@
         <v>9.77</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000924E-2</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="M6" s="1">
         <v>1000</v>
       </c>
       <c r="N6" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5488873223509312E-2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P6" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.5999361932121099</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000924E-2</v>
       </c>
       <c r="R6">
         <v>0.44500000000000001</v>
@@ -1051,8 +1040,9 @@
       <c r="S6" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="30"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1072,26 +1062,21 @@
         <v>9.68</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.13000000000000078</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="M7" s="1">
         <v>1200</v>
       </c>
       <c r="N7" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.11587300143109788</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P7" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.2432360332603949</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>0.13000000000000078</v>
       </c>
       <c r="R7">
         <v>0.55500000000000005</v>
@@ -1099,14 +1084,15 @@
       <c r="S7" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" s="30"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="I8" s="2">
         <v>5</v>
@@ -1118,26 +1104,21 @@
         <v>9.6199999999999992</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.19000000000000128</v>
+        <v>1.034</v>
       </c>
       <c r="M8" s="1">
         <v>1800</v>
       </c>
       <c r="N8" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.16987870684271233</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.1290083838731757</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>0.19000000000000128</v>
       </c>
       <c r="R8">
         <v>0.877</v>
@@ -1145,10 +1126,11 @@
       <c r="S8" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="30"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="2">
         <v>6</v>
@@ -1160,26 +1142,21 @@
         <v>9.58</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.23000000000000043</v>
+        <v>1.7050000000000001</v>
       </c>
       <c r="M9" s="1">
         <v>3000</v>
       </c>
       <c r="N9" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.20606996602808184</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P9" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9.0909463869772154</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="2"/>
-        <v>0.23000000000000043</v>
       </c>
       <c r="R9">
         <v>1.55</v>
@@ -1187,8 +1164,9 @@
       <c r="S9" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="30"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>19</v>
       </c>
@@ -1208,26 +1186,21 @@
         <v>9.44</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.37000000000000099</v>
+        <v>2.5390000000000001</v>
       </c>
       <c r="M10" s="1">
         <v>5000</v>
       </c>
       <c r="N10" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.33394026163759116</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P10" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15.73282226337067</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="2"/>
-        <v>0.37000000000000099</v>
       </c>
       <c r="R10">
         <v>2.66</v>
@@ -1235,8 +1208,9 @@
       <c r="S10" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="30"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>5</v>
@@ -1266,26 +1240,21 @@
         <v>9.06</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>4.149</v>
       </c>
       <c r="M11" s="1">
         <v>8000</v>
       </c>
       <c r="N11" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.690816194062709</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>23.743969974977841</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
       </c>
       <c r="R11">
         <v>3.95</v>
@@ -1293,8 +1262,9 @@
       <c r="S11" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="30"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1317,26 +1287,21 @@
         <v>8.61</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000011</v>
+        <v>4.9059999999999997</v>
       </c>
       <c r="M12" s="1">
         <v>10000</v>
       </c>
       <c r="N12" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1333171185258757</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P12" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>27.897412868095174</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="2"/>
-        <v>1.2000000000000011</v>
       </c>
       <c r="R12">
         <v>4.59</v>
@@ -1344,8 +1309,9 @@
       <c r="S12" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" s="30"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1368,26 +1334,21 @@
         <v>7.94</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="0"/>
-        <v>1.87</v>
+        <v>6.181</v>
       </c>
       <c r="M13" s="1">
         <v>14000</v>
       </c>
       <c r="N13" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8369700990570448</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P13" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>32.010276175344394</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="2"/>
-        <v>1.87</v>
       </c>
       <c r="R13">
         <v>5.2</v>
@@ -1395,8 +1356,9 @@
       <c r="S13" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13" s="30"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I14" s="2">
         <v>11</v>
       </c>
@@ -1407,26 +1369,21 @@
         <v>7.38</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4300000000000006</v>
+        <v>6.5640000000000001</v>
       </c>
       <c r="M14" s="1">
         <v>16000</v>
       </c>
       <c r="N14" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4722529111381393</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P14" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>38.448758460603983</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="2"/>
-        <v>2.4300000000000006</v>
       </c>
       <c r="R14">
         <v>6.1</v>
@@ -1434,8 +1391,9 @@
       <c r="S14" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" s="30"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>21</v>
       </c>
@@ -1455,26 +1413,21 @@
         <v>6.81</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000009</v>
+        <v>6.9370000000000003</v>
       </c>
       <c r="M15" s="1">
         <v>18000</v>
       </c>
       <c r="N15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.170437909343268</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>40.954054685153892</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="2"/>
-        <v>3.0000000000000009</v>
       </c>
       <c r="R15">
         <v>6.43</v>
@@ -1482,8 +1435,9 @@
       <c r="S15" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" s="30"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I16" s="2">
         <v>13</v>
       </c>
@@ -1494,26 +1448,21 @@
         <v>6.7</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1100000000000003</v>
+        <v>7.5250000000000004</v>
       </c>
       <c r="M16" s="1">
         <v>20000</v>
       </c>
       <c r="N16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.3118840935824414</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42.598783952778774</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="2"/>
-        <v>3.1100000000000003</v>
       </c>
       <c r="R16">
         <v>6.64</v>
@@ -1521,8 +1470,9 @@
       <c r="S16" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="17" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="30"/>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I17" s="2">
         <v>14</v>
       </c>
@@ -1533,26 +1483,21 @@
         <v>6.44</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="0"/>
-        <v>3.37</v>
+        <v>7.74</v>
       </c>
       <c r="M17" s="1">
         <v>22000</v>
       </c>
       <c r="N17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.6556628004027281</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P17" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>43.881587291940789</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="2"/>
-        <v>3.37</v>
       </c>
       <c r="R17">
         <v>6.8</v>
@@ -1560,8 +1505,9 @@
       <c r="S17" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="18" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="30"/>
+    </row>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I18" s="2">
         <v>15</v>
       </c>
@@ -1572,26 +1518,21 @@
         <v>5.31</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5000000000000009</v>
+        <v>8.4126999999999992</v>
       </c>
       <c r="M18" s="1">
         <v>30000</v>
       </c>
       <c r="N18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.3314897259695897</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P18" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>46.196052362654903</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="2"/>
-        <v>4.5000000000000009</v>
       </c>
       <c r="R18">
         <v>7.08</v>
@@ -1599,8 +1540,9 @@
       <c r="S18" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="19" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="30"/>
+    </row>
+    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I19" s="2">
         <v>16</v>
       </c>
@@ -1611,26 +1553,21 @@
         <v>3.56</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="0"/>
-        <v>6.25</v>
+        <v>9.282</v>
       </c>
       <c r="M19" s="1">
         <v>50000</v>
       </c>
       <c r="N19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.8043801881414652</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P19" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>65.829961709826875</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="2"/>
-        <v>6.25</v>
       </c>
       <c r="R19">
         <v>8.9499999999999993</v>
@@ -1638,8 +1575,9 @@
       <c r="S19" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="20" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="30"/>
+    </row>
+    <row r="20" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I20" s="2">
         <v>17</v>
       </c>
@@ -1650,26 +1588,21 @@
         <v>2.38</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="0"/>
-        <v>7.4300000000000006</v>
+        <v>9.5180000000000007</v>
       </c>
       <c r="M20" s="1">
         <v>80000</v>
       </c>
       <c r="N20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12.301841006468731</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P20" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>70.547067990319121</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="2"/>
-        <v>7.4300000000000006</v>
       </c>
       <c r="R20">
         <v>9.25</v>
@@ -1677,8 +1610,9 @@
       <c r="S20" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="21" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="30"/>
+    </row>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I21" s="2">
         <v>18</v>
       </c>
@@ -1689,26 +1623,21 @@
         <v>1.69</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="0"/>
-        <v>8.120000000000001</v>
+        <v>9.6310000000000002</v>
       </c>
       <c r="M21" s="1">
         <v>120000</v>
       </c>
       <c r="N21" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15.275646055325501</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P21" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>76.277900285347869</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="2"/>
-        <v>8.120000000000001</v>
       </c>
       <c r="R21">
         <v>9.5299999999999994</v>
@@ -1716,8 +1645,9 @@
       <c r="S21" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="22" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="30"/>
+    </row>
+    <row r="22" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I22" s="2">
         <v>19</v>
       </c>
@@ -1728,26 +1658,21 @@
         <v>1.44</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="0"/>
-        <v>8.370000000000001</v>
+        <v>9.6890000000000001</v>
       </c>
       <c r="M22" s="1">
         <v>150000</v>
       </c>
       <c r="N22" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16.666130305693976</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P22" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>78.123442716406927</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="2"/>
-        <v>8.370000000000001</v>
       </c>
       <c r="R22">
         <v>9.6</v>
@@ -1755,8 +1680,9 @@
       <c r="S22" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="23" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="30"/>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I23" s="2">
         <v>20</v>
       </c>
@@ -1767,26 +1693,21 @@
         <v>1.19</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="0"/>
-        <v>8.620000000000001</v>
+        <v>9.7159999999999993</v>
       </c>
       <c r="M23" s="1">
         <v>180000</v>
       </c>
       <c r="N23" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18.322440919748356</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>78.410659015772893</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="2"/>
-        <v>8.620000000000001</v>
       </c>
       <c r="R23">
         <v>9.61</v>
@@ -1794,8 +1715,9 @@
       <c r="S23" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="24" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="30"/>
+    </row>
+    <row r="24" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I24" s="2">
         <v>21</v>
       </c>
@@ -1806,26 +1728,21 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="L24" s="13">
-        <f t="shared" si="0"/>
-        <v>8.68</v>
+        <v>9.7370000000000001</v>
       </c>
       <c r="M24" s="13">
         <v>200000</v>
       </c>
       <c r="N24" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18.771811277930574</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P24" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>78.410659015772893</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="2"/>
-        <v>8.68</v>
       </c>
       <c r="R24">
         <v>9.61</v>
@@ -1833,8 +1750,9 @@
       <c r="S24" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="25" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="30"/>
+    </row>
+    <row r="25" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I25" s="2">
         <v>22</v>
       </c>
@@ -1845,26 +1763,21 @@
         <v>0.44</v>
       </c>
       <c r="L25" s="13">
-        <f t="shared" si="0"/>
-        <v>9.370000000000001</v>
+        <v>9.766</v>
       </c>
       <c r="M25" s="13">
         <v>250000</v>
       </c>
       <c r="N25" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26.964326617875219</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P25" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>78.410659015772893</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="2"/>
-        <v>9.370000000000001</v>
       </c>
       <c r="R25">
         <v>9.61</v>
@@ -1872,8 +1785,9 @@
       <c r="S25" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="26" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="30"/>
+    </row>
+    <row r="26" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I26" s="2">
         <v>23</v>
       </c>
@@ -1884,26 +1798,21 @@
         <v>0.81</v>
       </c>
       <c r="L26" s="13">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>9.7579999999999991</v>
       </c>
       <c r="M26" s="13">
         <v>300000</v>
       </c>
       <c r="N26" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21.663679770025972</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P26" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>78.410659015772893</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="2"/>
-        <v>9</v>
       </c>
       <c r="R26">
         <v>9.61</v>
@@ -1911,8 +1820,9 @@
       <c r="S26" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="27" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="30"/>
+    </row>
+    <row r="27" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I27" s="2">
         <v>24</v>
       </c>
@@ -1923,26 +1833,21 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="L27" s="13">
-        <f t="shared" si="0"/>
-        <v>9.25</v>
+        <v>9.7769999999999992</v>
       </c>
       <c r="M27" s="13">
         <v>500000</v>
       </c>
       <c r="N27" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24.869619607474959</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P27" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>78.410659015772893</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="2"/>
-        <v>9.25</v>
       </c>
       <c r="R27">
         <v>9.61</v>
@@ -1950,8 +1855,9 @@
       <c r="S27" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="28" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="T27" s="30"/>
+    </row>
+    <row r="28" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I28" s="2">
         <v>25</v>
       </c>
@@ -1962,26 +1868,21 @@
         <v>0.3</v>
       </c>
       <c r="L28" s="13">
-        <f t="shared" si="0"/>
-        <v>9.51</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="M28" s="13">
         <v>1000000</v>
       </c>
       <c r="N28" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30.290955053205721</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P28" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>78.410659015772893</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="2"/>
-        <v>9.51</v>
       </c>
       <c r="R28">
         <v>9.61</v>
@@ -1989,6 +1890,7 @@
       <c r="S28" s="1">
         <v>9.81</v>
       </c>
+      <c r="T28" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2094,10 +1996,10 @@
         <v>42.44650242011226</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2122,7 +2024,7 @@
         <v>24.384702680273392</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -2148,7 +2050,7 @@
         <v>20.862877499159765</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -2174,7 +2076,7 @@
         <v>19.119873984781762</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -2200,7 +2102,7 @@
         <v>17.668860641809523</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -2226,7 +2128,7 @@
         <v>13.927127774666641</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -2252,7 +2154,7 @@
         <v>10.092519907409516</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -2278,7 +2180,7 @@
         <v>7.0589558985894936</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -2304,7 +2206,7 @@
         <v>6.3048261604696307</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7"/>
     </row>
@@ -2330,7 +2232,7 @@
         <v>4.099893897981187</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="7"/>
     </row>
@@ -2356,7 +2258,7 @@
         <v>3.2466056535439405</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -2382,7 +2284,7 @@
         <v>3.1581667404622973</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -2408,7 +2310,7 @@
         <v>3.0333673286130929</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -2434,7 +2336,7 @@
         <v>2.7051001016855221</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -2460,7 +2362,7 @@
         <v>1.6397309837008689</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18" s="7"/>
     </row>
@@ -2486,7 +2388,7 @@
         <v>0.93069851017533711</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" s="7"/>
     </row>
@@ -2512,7 +2414,7 @@
         <v>0.56873406831941298</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -2538,7 +2440,7 @@
         <v>0.22125214693095968</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="7"/>
     </row>
@@ -2564,7 +2466,7 @@
         <v>0.20334308978616783</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22" s="7"/>
     </row>
@@ -2590,7 +2492,7 @@
         <v>0.19440238942077401</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="7"/>
     </row>
